--- a/sweetest/element/Baidu-Elements.xlsx
+++ b/sweetest/element/Baidu-Elements.xlsx
@@ -16,14 +16,14 @@
     <definedName name="产品管理系统首页">#REF!</definedName>
     <definedName name="通用" localSheetId="0">elements!#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
-    <definedName name="页面" localSheetId="0">elements!$A$17:$A$17</definedName>
+    <definedName name="页面" localSheetId="0">elements!$A$18:$A$18</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,14 @@
   </si>
   <si>
     <t>新股预告表格#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//button[text()="#"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -936,110 +944,116 @@
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="10" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>38</v>
+      <c r="B15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -1166,14 +1180,14 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
@@ -1197,17 +1211,17 @@
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="3"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="9"/>
+      <c r="D46" s="8"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -1220,233 +1234,240 @@
     <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="6"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="3"/>
       <c r="C49" s="7"/>
       <c r="D49" s="3"/>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
-      <c r="B50" s="3"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="7"/>
       <c r="D50" s="3"/>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="5"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="6"/>
-      <c r="D52" s="3"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
-      <c r="B53" s="5"/>
+      <c r="B53" s="3"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
-      <c r="B54" s="3"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
-      <c r="B55" s="5"/>
+      <c r="B55" s="3"/>
       <c r="C55" s="6"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="6"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
-      <c r="B57" s="5"/>
+      <c r="B57" s="3"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
-      <c r="B58" s="3"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="3"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
-      <c r="B59" s="5"/>
+      <c r="B59" s="3"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="5"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
-      <c r="B60" s="3"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="6"/>
-      <c r="D60" s="3"/>
+      <c r="D60" s="5"/>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
-      <c r="B61" s="5"/>
+      <c r="B61" s="3"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="5"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
-      <c r="B62" s="3"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="6"/>
-      <c r="D62" s="3"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
-      <c r="B63" s="5"/>
+      <c r="B63" s="3"/>
       <c r="C63" s="6"/>
-      <c r="D63" s="5"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
-      <c r="B64" s="3"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="6"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
-      <c r="B65" s="5"/>
+      <c r="B65" s="3"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="5"/>
+      <c r="D65" s="3"/>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
-      <c r="B66" s="3"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="6"/>
-      <c r="D66" s="3"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
-      <c r="B67" s="5"/>
+      <c r="B67" s="3"/>
       <c r="C67" s="6"/>
-      <c r="D67" s="5"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="6"/>
     </row>
     <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
-      <c r="B68" s="3"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="6"/>
-      <c r="D68" s="3"/>
+      <c r="D68" s="5"/>
       <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
-      <c r="B69" s="5"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="6"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="3"/>
       <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
-      <c r="B70" s="3"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="3"/>
+      <c r="D70" s="5"/>
       <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
-      <c r="B71" s="5"/>
+      <c r="B71" s="3"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="5"/>
+      <c r="D71" s="3"/>
       <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
-      <c r="B72" s="3"/>
+      <c r="B72" s="5"/>
       <c r="C72" s="6"/>
-      <c r="D72" s="3"/>
+      <c r="D72" s="5"/>
       <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
-      <c r="B73" s="5"/>
+      <c r="B73" s="3"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="5"/>
+      <c r="D73" s="3"/>
       <c r="E73" s="6"/>
     </row>
     <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="5"/>
       <c r="C74" s="6"/>
-      <c r="D74" s="3"/>
+      <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
-      <c r="B75" s="5"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="6"/>
-      <c r="D75" s="5"/>
+      <c r="D75" s="3"/>
       <c r="E75" s="6"/>
     </row>
     <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
-      <c r="B76" s="3"/>
+      <c r="B76" s="5"/>
       <c r="C76" s="6"/>
-      <c r="D76" s="3"/>
+      <c r="D76" s="5"/>
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
-      <c r="B77" s="5"/>
+      <c r="B77" s="3"/>
       <c r="C77" s="6"/>
-      <c r="D77" s="5"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
-      <c r="B78" s="3"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="3"/>
+      <c r="D78" s="5"/>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
-      <c r="B79" s="5"/>
+      <c r="B79" s="3"/>
       <c r="C79" s="6"/>
-      <c r="D79" s="5"/>
+      <c r="D79" s="3"/>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="6"/>
-      <c r="D80" s="3"/>
+      <c r="D80" s="5"/>
       <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sweetest/element/Baidu-Elements.xlsx
+++ b/sweetest/element/Baidu-Elements.xlsx
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>by</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +230,10 @@
   </si>
   <si>
     <t>button#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +762,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -779,27 +779,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="3"/>
@@ -807,10 +807,10 @@
     <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="3"/>
@@ -818,7 +818,7 @@
     <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -827,225 +827,225 @@
     <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E21" s="3"/>
     </row>

--- a/sweetest/element/Baidu-Elements.xlsx
+++ b/sweetest/element/Baidu-Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="20565" windowHeight="11355"/>
+    <workbookView xWindow="240" yWindow="405" windowWidth="20565" windowHeight="11205"/>
   </bookViews>
   <sheets>
     <sheet name="elements" sheetId="2" r:id="rId1"/>
@@ -16,14 +16,14 @@
     <definedName name="产品管理系统首页">#REF!</definedName>
     <definedName name="通用" localSheetId="0">elements!#REF!</definedName>
     <definedName name="通用">#REF!</definedName>
-    <definedName name="页面" localSheetId="0">elements!$A$18:$A$18</definedName>
+    <definedName name="页面" localSheetId="0">elements!$A$20:$A$20</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用例片段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,7 +229,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>更新User表#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询User表#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE runoob_tbl SET # WHERE #</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目状态#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sonar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>element</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseurl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/qualitygates/project_status?projectKey=#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://vwt-sonar/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/authentication/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'Content-Type':'application/x-www-form-urlencoded'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select STKPOOLID,STKID,STKNAME from ir_stkpool_member_etl where STKPOOLID='#'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type=Oracle,
+host=127.0.0.1,
+port=3306,
+user=kims,
+password=123456,
+dbname=test,
+sid=jzdb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -402,11 +500,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -428,6 +546,23 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -759,27 +894,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="35.75" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="67.75" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -788,686 +925,797 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E2" s="10"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E3" s="10"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E5" s="10"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E10" s="10"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E12" s="10"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E13" s="10"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E15" s="10"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
       <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D28" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E41" s="13"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E42" s="13"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="5"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D45" s="9"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="5"/>
+      <c r="B46" s="3"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D46" s="9"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="7"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
       <c r="B49" s="3"/>
       <c r="C49" s="7"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E49" s="16"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C50" s="6"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="7"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E51" s="16"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E52" s="17"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="3"/>
       <c r="C53" s="6"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E53" s="16"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E54" s="17"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="3"/>
       <c r="C55" s="6"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E55" s="16"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E56" s="17"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="3"/>
       <c r="C57" s="6"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E57" s="16"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E58" s="17"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
       <c r="C59" s="6"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E59" s="16"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E60" s="17"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="3"/>
       <c r="C61" s="6"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E61" s="16"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E62" s="17"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="3"/>
       <c r="C63" s="6"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E63" s="16"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E64" s="17"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="3"/>
       <c r="C65" s="6"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E65" s="16"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E66" s="17"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
       <c r="C67" s="6"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E67" s="16"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E68" s="17"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="3"/>
       <c r="C69" s="6"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E69" s="16"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E70" s="17"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="3"/>
       <c r="C71" s="6"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E71" s="16"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E72" s="17"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="3"/>
       <c r="C73" s="6"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E73" s="16"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E74" s="17"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="3"/>
       <c r="C75" s="6"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E75" s="16"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E76" s="17"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
       <c r="B77" s="3"/>
       <c r="C77" s="6"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E77" s="16"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="5"/>
-      <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E78" s="17"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="3"/>
       <c r="C79" s="6"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="6"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="6"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="6"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sweetest/element/Baidu-Elements.xlsx
+++ b/sweetest/element/Baidu-Elements.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +332,18 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom 列一般用作页面有 frame 的情况，如果元素不在默认 frame，需要填写该元素的 frame id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在同一个 page 层级下，下层元素的 custom 自动继承上一个元素的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色背景的行，为通用预定义元素，请勿删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,8 +909,8 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -908,7 +920,7 @@
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="67.75" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="89.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -943,7 +955,9 @@
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -955,7 +969,9 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -969,7 +985,9 @@
         <v>75</v>
       </c>
       <c r="E4" s="10"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>

--- a/sweetest/element/Baidu-Elements.xlsx
+++ b/sweetest/element/Baidu-Elements.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>page</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,38 +253,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目状态#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sonar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>element</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>baseurl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>custom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>config</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,23 +273,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>api/qualitygates/project_status?projectKey=#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://vwt-sonar/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api/authentication/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'Content-Type':'application/x-www-form-urlencoded'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select STKPOOLID,STKID,STKNAME from ir_stkpool_member_etl where STKPOOLID='#'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom 列一般用作页面有 frame 的情况，如果元素不在默认 frame，需要填写该元素的 frame id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在同一个 page 层级下，下层元素的 custom 自动继承上一个元素的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色背景的行，为通用预定义元素，请勿删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,30 +308,6 @@
 password=123456,
 dbname=test,
 sid=jzdb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alert#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>custom 列一般用作页面有 frame 的情况，如果元素不在默认 frame，需要填写该元素的 frame id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在同一个 page 层级下，下层元素的 custom 自动继承上一个元素的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰色背景的行，为通用预定义元素，请勿删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -558,12 +522,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,11 +864,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -928,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -937,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -956,7 +914,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -970,23 +928,23 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="10" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1158,11 +1116,11 @@
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="3"/>
@@ -1260,11 +1218,11 @@
         <v>55</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1276,7 +1234,7 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1294,52 +1252,34 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="12"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="12"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
-      <c r="B30" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
@@ -1380,119 +1320,119 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
+      <c r="A36" s="6"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="13"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="5"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="3"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="13"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="5"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="13"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="4"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
       <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="14"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="4"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="9"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="15"/>
-      <c r="F46" s="4"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="7"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="7"/>
+      <c r="C47" s="6"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="16"/>
+      <c r="E47" s="14"/>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="16"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="15"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="7"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="16"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1500,7 +1440,7 @@
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="17"/>
+      <c r="E50" s="15"/>
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1508,7 +1448,7 @@
       <c r="B51" s="3"/>
       <c r="C51" s="6"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="16"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1516,7 +1456,7 @@
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="17"/>
+      <c r="E52" s="15"/>
       <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1524,7 +1464,7 @@
       <c r="B53" s="3"/>
       <c r="C53" s="6"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="16"/>
+      <c r="E53" s="14"/>
       <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1532,7 +1472,7 @@
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="17"/>
+      <c r="E54" s="15"/>
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1540,7 +1480,7 @@
       <c r="B55" s="3"/>
       <c r="C55" s="6"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="16"/>
+      <c r="E55" s="14"/>
       <c r="F55" s="6"/>
     </row>
     <row r="56" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1548,7 +1488,7 @@
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="17"/>
+      <c r="E56" s="15"/>
       <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1556,7 +1496,7 @@
       <c r="B57" s="3"/>
       <c r="C57" s="6"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="16"/>
+      <c r="E57" s="14"/>
       <c r="F57" s="6"/>
     </row>
     <row r="58" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1564,7 +1504,7 @@
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="17"/>
+      <c r="E58" s="15"/>
       <c r="F58" s="6"/>
     </row>
     <row r="59" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1572,7 +1512,7 @@
       <c r="B59" s="3"/>
       <c r="C59" s="6"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="16"/>
+      <c r="E59" s="14"/>
       <c r="F59" s="6"/>
     </row>
     <row r="60" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1580,7 +1520,7 @@
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="17"/>
+      <c r="E60" s="15"/>
       <c r="F60" s="6"/>
     </row>
     <row r="61" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1588,7 +1528,7 @@
       <c r="B61" s="3"/>
       <c r="C61" s="6"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="16"/>
+      <c r="E61" s="14"/>
       <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1596,7 +1536,7 @@
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="17"/>
+      <c r="E62" s="15"/>
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1604,7 +1544,7 @@
       <c r="B63" s="3"/>
       <c r="C63" s="6"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="16"/>
+      <c r="E63" s="14"/>
       <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1612,7 +1552,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="17"/>
+      <c r="E64" s="15"/>
       <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1620,7 +1560,7 @@
       <c r="B65" s="3"/>
       <c r="C65" s="6"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="16"/>
+      <c r="E65" s="14"/>
       <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1628,7 +1568,7 @@
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="5"/>
-      <c r="E66" s="17"/>
+      <c r="E66" s="15"/>
       <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1636,7 +1576,7 @@
       <c r="B67" s="3"/>
       <c r="C67" s="6"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="16"/>
+      <c r="E67" s="14"/>
       <c r="F67" s="6"/>
     </row>
     <row r="68" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1644,7 +1584,7 @@
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="17"/>
+      <c r="E68" s="15"/>
       <c r="F68" s="6"/>
     </row>
     <row r="69" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1652,7 +1592,7 @@
       <c r="B69" s="3"/>
       <c r="C69" s="6"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="16"/>
+      <c r="E69" s="14"/>
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1660,7 +1600,7 @@
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="17"/>
+      <c r="E70" s="15"/>
       <c r="F70" s="6"/>
     </row>
     <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1668,7 +1608,7 @@
       <c r="B71" s="3"/>
       <c r="C71" s="6"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="16"/>
+      <c r="E71" s="14"/>
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1676,7 +1616,7 @@
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="17"/>
+      <c r="E72" s="15"/>
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1684,7 +1624,7 @@
       <c r="B73" s="3"/>
       <c r="C73" s="6"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="16"/>
+      <c r="E73" s="14"/>
       <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1692,7 +1632,7 @@
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
       <c r="D74" s="5"/>
-      <c r="E74" s="17"/>
+      <c r="E74" s="15"/>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -1700,40 +1640,8 @@
       <c r="B75" s="3"/>
       <c r="C75" s="6"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="16"/>
+      <c r="E75" s="14"/>
       <c r="F75" s="6"/>
-    </row>
-    <row r="76" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="6"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="6"/>
-    </row>
-    <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="6"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="6"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="6"/>
-    </row>
-    <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
